--- a/figures/Analysis.xlsx
+++ b/figures/Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jatur\dynamic-cache-sim\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268B75A2-6DD5-47BA-9D91-BAA2C433C8E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3328FD3D-C71D-45F7-8326-1761B2CBA5A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="9" xr2:uid="{E4A3DE6B-5345-4BBD-A675-76BBD579F296}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{E4A3DE6B-5345-4BBD-A675-76BBD579F296}"/>
   </bookViews>
   <sheets>
     <sheet name="Non-Uniform-1000" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>Cache Size</t>
   </si>
   <si>
-    <t>Aggressive Dynamic</t>
-  </si>
-  <si>
     <t>Cache Variables</t>
   </si>
   <si>
@@ -65,25 +62,28 @@
     <t>Percentage Deltas</t>
   </si>
   <si>
-    <t>Dynamic - Standard</t>
+    <t>Total</t>
   </si>
   <si>
-    <t>Aggressive - Standard</t>
+    <t>S-Cache</t>
   </si>
   <si>
-    <t>Hyper Dynamic</t>
+    <t>D-Cache-N</t>
   </si>
   <si>
-    <t>Dynamic</t>
+    <t>D-Cache-A</t>
   </si>
   <si>
-    <t>Standard</t>
+    <t>HD-Cache</t>
   </si>
   <si>
-    <t>Hyper - Standard</t>
+    <t>D-Cache-N - S-Cache</t>
   </si>
   <si>
-    <t>Total</t>
+    <t>D-Cache-A - S-Cache</t>
+  </si>
+  <si>
+    <t>HD-Cache - S-Cache</t>
   </si>
 </sst>
 </file>
@@ -91,7 +91,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000%"/>
+    <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -176,12 +176,12 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
@@ -507,70 +507,70 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="I2" sqref="A2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" customWidth="1"/>
-    <col min="7" max="7" width="17.5546875" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" customWidth="1"/>
-    <col min="9" max="9" width="16.88671875" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
       <c r="J1" s="1"/>
       <c r="M1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="M2">
         <f>(1000000+1985525)</f>
@@ -596,15 +596,15 @@
       <c r="F3">
         <v>591138</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <f>$C3/$M$2-D3/$M$2</f>
         <v>-1.7922475946441585E-2</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <f t="shared" ref="H3:I17" si="0">$C3/$M$2-E3/$M$2</f>
         <v>-1.6322422354527272E-2</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <f t="shared" si="0"/>
         <v>-4.2273302015558401E-2</v>
       </c>
@@ -628,15 +628,15 @@
       <c r="F4">
         <v>336822</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <f>$C4/$M$2-D4/$M$2</f>
         <v>-2.1251538674102538E-2</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <f t="shared" si="0"/>
         <v>-2.2979542961455685E-2</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <f t="shared" si="0"/>
         <v>-4.708183652791384E-2</v>
       </c>
@@ -660,15 +660,15 @@
       <c r="F5">
         <v>508</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <f t="shared" ref="G5:G17" si="1">$C5/$M$2-D5/$M$2</f>
         <v>0</v>
       </c>
-      <c r="H5" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="4">
+      <c r="H5" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -692,15 +692,15 @@
       <c r="F6">
         <v>276</v>
       </c>
-      <c r="G6" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
+      <c r="G6" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -724,15 +724,15 @@
       <c r="F7">
         <v>276</v>
       </c>
-      <c r="G7" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
+      <c r="G7" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -756,15 +756,15 @@
       <c r="F8">
         <v>594664</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <f t="shared" si="1"/>
         <v>-9.2559935019803918E-3</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <f t="shared" si="0"/>
         <v>-1.2674152787198245E-2</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <f t="shared" si="0"/>
         <v>-3.5523065457499114E-2</v>
       </c>
@@ -788,15 +788,15 @@
       <c r="F9">
         <v>383802</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <f t="shared" si="1"/>
         <v>-3.2274725550782521E-2</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <f t="shared" si="0"/>
         <v>-3.1403187044154707E-2</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <f t="shared" si="0"/>
         <v>-6.4710561793989319E-2</v>
       </c>
@@ -820,15 +820,15 @@
       <c r="F10">
         <v>536</v>
       </c>
-      <c r="G10" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="4">
+      <c r="G10" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -852,15 +852,15 @@
       <c r="F11">
         <v>276</v>
       </c>
-      <c r="G11" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="4">
+      <c r="G11" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -884,15 +884,15 @@
       <c r="F12">
         <v>276</v>
       </c>
-      <c r="G12" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
+      <c r="G12" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -916,15 +916,15 @@
       <c r="F13">
         <v>611416</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <f t="shared" si="1"/>
         <v>-7.3307039800370177E-3</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <f t="shared" si="0"/>
         <v>-1.0551243081200118E-2</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <f t="shared" si="0"/>
         <v>-4.0838378509642365E-2</v>
       </c>
@@ -948,15 +948,15 @@
       <c r="F14">
         <v>378091</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <f t="shared" si="1"/>
         <v>-4.6363369926562328E-2</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <f t="shared" si="0"/>
         <v>-4.8491638823992433E-2</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <f t="shared" si="0"/>
         <v>-6.9929409400356732E-2</v>
       </c>
@@ -980,15 +980,15 @@
       <c r="F15">
         <v>546</v>
       </c>
-      <c r="G15" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="4">
+      <c r="G15" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1012,15 +1012,15 @@
       <c r="F16">
         <v>276</v>
       </c>
-      <c r="G16" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="4">
+      <c r="G16" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1044,15 +1044,15 @@
       <c r="F17">
         <v>276</v>
       </c>
-      <c r="G17" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="4">
+      <c r="G17" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1075,6 +1075,174 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C4:F4">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:F5">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:F6">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:F7">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:F8">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:F9">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:F10">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:F11">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:F12">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13:F13">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:F14">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:F15">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:F16">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:F17">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G3:I17">
     <cfRule type="colorScale" priority="17">
       <colorScale>
@@ -1082,174 +1250,6 @@
         <cfvo type="num" val="9.9999999999999995E-8"/>
         <color rgb="FFFF7C80"/>
         <color theme="9" tint="0.39997558519241921"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:F4">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8:F8">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5:F5">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6:F6">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7:F7">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9:F9">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10:F10">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11:F11">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12:F12">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13:F13">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14:F14">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15:F15">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16:F16">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:F17">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -1262,71 +1262,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB982E7-A868-4AEA-8FC9-AD69D8A89F6A}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="A2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
       <c r="J1" s="1"/>
       <c r="M1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="M2">
         <f>(17175+982856)</f>
@@ -1352,15 +1352,15 @@
       <c r="F3">
         <v>971562</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <f>$C3/$M$2-D3/$M$2</f>
         <v>7.4877678791956948E-3</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <f t="shared" ref="H3:I17" si="0">$C3/$M$2-E3/$M$2</f>
         <v>9.2797123289178884E-4</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <f t="shared" si="0"/>
         <v>9.1997148088407421E-4</v>
       </c>
@@ -1384,15 +1384,15 @@
       <c r="F4">
         <v>908949</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <f>$C4/$M$2-D4/$M$2</f>
         <v>9.6647003942877951E-3</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <f t="shared" si="0"/>
         <v>6.2568060390127966E-3</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <f t="shared" si="0"/>
         <v>3.6011883631607455E-2</v>
       </c>
@@ -1416,15 +1416,15 @@
       <c r="F5">
         <v>856815</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <f t="shared" ref="G5:G17" si="1">$C5/$M$2-D5/$M$2</f>
         <v>6.7709900993069283E-2</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <f t="shared" si="0"/>
         <v>6.8106888686450762E-2</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <f t="shared" si="0"/>
         <v>3.3135972784843704E-2</v>
       </c>
@@ -1448,15 +1448,15 @@
       <c r="F6">
         <v>708474</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <f t="shared" si="1"/>
         <v>-0.1352108084649376</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <f t="shared" si="0"/>
         <v>-0.13691175573557224</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <f t="shared" si="0"/>
         <v>-0.29194994955156395</v>
       </c>
@@ -1480,15 +1480,15 @@
       <c r="F7">
         <v>1066</v>
       </c>
-      <c r="G7" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
+      <c r="G7" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1512,15 +1512,15 @@
       <c r="F8">
         <v>957800</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <f t="shared" si="1"/>
         <v>9.2797123289178884E-4</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <f t="shared" si="0"/>
         <v>9.2797123289178884E-4</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <f t="shared" si="0"/>
         <v>9.2197141888605838E-4</v>
       </c>
@@ -1544,15 +1544,15 @@
       <c r="F9">
         <v>896022</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <f t="shared" si="1"/>
         <v>1.4531549521964782E-2</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <f t="shared" si="0"/>
         <v>1.8399429617681484E-3</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <f t="shared" si="0"/>
         <v>2.1419336000583877E-2</v>
       </c>
@@ -1576,15 +1576,15 @@
       <c r="F10">
         <v>809907</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <f t="shared" si="1"/>
         <v>5.768221185143263E-2</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <f t="shared" si="0"/>
         <v>5.479630131465929E-2</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <f t="shared" si="0"/>
         <v>2.500422486902909E-2</v>
       </c>
@@ -1608,15 +1608,15 @@
       <c r="F11">
         <v>638592</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <f t="shared" si="1"/>
         <v>-8.369040559742652E-2</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <f t="shared" si="0"/>
         <v>-8.5428351721096696E-2</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <f t="shared" si="0"/>
         <v>-0.22411305249537272</v>
       </c>
@@ -1640,15 +1640,15 @@
       <c r="F12">
         <v>1081</v>
       </c>
-      <c r="G12" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
+      <c r="G12" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1672,15 +1672,15 @@
       <c r="F13">
         <v>950921</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <f t="shared" si="1"/>
         <v>9.2797123289178884E-4</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <f t="shared" si="0"/>
         <v>9.2797123289178884E-4</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <f t="shared" si="0"/>
         <v>9.2097144988512181E-4</v>
       </c>
@@ -1704,15 +1704,15 @@
       <c r="F14">
         <v>884007</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <f t="shared" si="1"/>
         <v>1.8419428997701326E-3</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <f t="shared" si="0"/>
         <v>1.8419428997701326E-3</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <f t="shared" si="0"/>
         <v>1.9674390093907146E-2</v>
       </c>
@@ -1736,15 +1736,15 @@
       <c r="F15">
         <v>785418</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <f t="shared" si="1"/>
         <v>6.0322130013969577E-2</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <f t="shared" si="0"/>
         <v>4.2886670513214153E-2</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <f t="shared" si="0"/>
         <v>2.1973318827116395E-2</v>
       </c>
@@ -1768,15 +1768,15 @@
       <c r="F16">
         <v>596856</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <f t="shared" si="1"/>
         <v>-5.8869175055573264E-2</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <f t="shared" si="0"/>
         <v>-5.9608152147283433E-2</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="3">
         <f t="shared" si="0"/>
         <v>-0.18440228352921056</v>
       </c>
@@ -1800,15 +1800,15 @@
       <c r="F17">
         <v>1089</v>
       </c>
-      <c r="G17" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="4">
+      <c r="G17" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1831,6 +1831,174 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C4:F4">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:F5">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:F6">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:F7">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:F8">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:F9">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:F10">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:F11">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:F12">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13:F13">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:F14">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:F15">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:F16">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:F17">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G3:I17">
     <cfRule type="colorScale" priority="16">
       <colorScale>
@@ -1838,174 +2006,6 @@
         <cfvo type="num" val="9.9999999999999995E-8"/>
         <color rgb="FFFF7C80"/>
         <color theme="9" tint="0.39997558519241921"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:F4">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8:F8">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5:F5">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6:F6">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7:F7">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9:F9">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10:F10">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11:F11">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12:F12">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13:F13">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14:F14">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15:F15">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16:F16">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:F17">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -2017,71 +2017,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468055E8-779C-4E0A-BCCC-32EE1E96F2F6}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection sqref="A1:M17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
       <c r="J1" s="1"/>
       <c r="M1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="M2">
         <f>(1000000+1972675)</f>
@@ -2107,15 +2107,15 @@
       <c r="F3">
         <v>744098</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <f>$C3/$M$2-D3/$M$2</f>
         <v>-7.1154768011975622E-3</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <f t="shared" ref="H3:I17" si="0">$C3/$M$2-E3/$M$2</f>
         <v>-7.1558444835038981E-3</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <f t="shared" si="0"/>
         <v>-1.3173656723321575E-2</v>
       </c>
@@ -2139,15 +2139,15 @@
       <c r="F4">
         <v>589737</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <f>$C4/$M$2-D4/$M$2</f>
         <v>-1.3963517707115652E-2</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <f t="shared" si="0"/>
         <v>-1.3703146156239743E-2</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <f t="shared" si="0"/>
         <v>-4.1903672618096494E-2</v>
       </c>
@@ -2171,15 +2171,15 @@
       <c r="F5">
         <v>331642</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <f t="shared" ref="G5:G17" si="1">$C5/$M$2-D5/$M$2</f>
         <v>-1.2885027794831264E-2</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <f t="shared" si="0"/>
         <v>-1.334151900224545E-2</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <f t="shared" si="0"/>
         <v>-4.0579276241095988E-2</v>
       </c>
@@ -2203,15 +2203,15 @@
       <c r="F6">
         <v>662</v>
       </c>
-      <c r="G6" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
+      <c r="G6" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2235,15 +2235,15 @@
       <c r="F7">
         <v>535</v>
       </c>
-      <c r="G7" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
+      <c r="G7" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2267,15 +2267,15 @@
       <c r="F8">
         <v>752815</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <f t="shared" si="1"/>
         <v>-9.757878005500098E-3</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <f t="shared" si="0"/>
         <v>-9.5974164683323981E-3</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <f t="shared" si="0"/>
         <v>-1.8528766178610157E-2</v>
       </c>
@@ -2299,15 +2299,15 @@
       <c r="F9">
         <v>592029</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <f t="shared" si="1"/>
         <v>-1.0192839782350915E-2</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <f t="shared" si="0"/>
         <v>-1.4563650584069887E-2</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <f t="shared" si="0"/>
         <v>-3.4366689934150207E-2</v>
       </c>
@@ -2331,15 +2331,15 @@
       <c r="F10">
         <v>399939</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <f t="shared" si="1"/>
         <v>-3.4074360634781808E-2</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <f t="shared" si="0"/>
         <v>-3.4161487549092998E-2</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <f t="shared" si="0"/>
         <v>-6.9624496455212917E-2</v>
       </c>
@@ -2363,15 +2363,15 @@
       <c r="F11">
         <v>708</v>
       </c>
-      <c r="G11" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="4">
+      <c r="G11" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2395,15 +2395,15 @@
       <c r="F12">
         <v>535</v>
       </c>
-      <c r="G12" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
+      <c r="G12" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2427,15 +2427,15 @@
       <c r="F13">
         <v>737213</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <f t="shared" si="1"/>
         <v>-1.1570050543702221E-2</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <f t="shared" si="0"/>
         <v>-1.0768415652568808E-2</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <f t="shared" si="0"/>
         <v>-1.4594262743152203E-2</v>
       </c>
@@ -2459,15 +2459,15 @@
       <c r="F14">
         <v>588035</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <f t="shared" si="1"/>
         <v>-3.8292110641089117E-3</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <f t="shared" si="0"/>
         <v>-5.0570614009267656E-3</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <f t="shared" si="0"/>
         <v>-3.2063377261220938E-2</v>
       </c>
@@ -2491,15 +2491,15 @@
       <c r="F15">
         <v>416686</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <f t="shared" si="1"/>
         <v>-7.1948665764000469E-3</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <f t="shared" si="0"/>
         <v>-4.6012093484824268E-2</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <f t="shared" si="0"/>
         <v>-8.3663703566652939E-2</v>
       </c>
@@ -2523,15 +2523,15 @@
       <c r="F16">
         <v>768</v>
       </c>
-      <c r="G16" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="4">
+      <c r="G16" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2555,15 +2555,15 @@
       <c r="F17">
         <v>535</v>
       </c>
-      <c r="G17" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="4">
+      <c r="G17" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2586,6 +2586,174 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C4:F4">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:F5">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:F6">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:F7">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:F8">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:F9">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:F10">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:F11">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:F12">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13:F13">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:F14">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:F15">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:F16">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:F17">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G3:I17">
     <cfRule type="colorScale" priority="16">
       <colorScale>
@@ -2593,174 +2761,6 @@
         <cfvo type="num" val="9.9999999999999995E-8"/>
         <color rgb="FFFF7C80"/>
         <color theme="9" tint="0.39997558519241921"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:F4">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8:F8">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5:F5">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6:F6">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7:F7">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9:F9">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10:F10">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11:F11">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12:F12">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13:F13">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14:F14">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15:F15">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16:F16">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:F17">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -2773,70 +2773,70 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
       <c r="J1" s="1"/>
       <c r="M1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="M2">
         <f>(1000000+1948709)</f>
@@ -2862,15 +2862,15 @@
       <c r="F3">
         <v>860338</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <f>$C3/$M$2-D3/$M$2</f>
         <v>5.194815765136529E-3</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <f t="shared" ref="H3:I17" si="0">$C3/$M$2-E3/$M$2</f>
         <v>2.8436173254125507E-3</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <f t="shared" si="0"/>
         <v>4.0098904300153171E-3</v>
       </c>
@@ -2894,15 +2894,15 @@
       <c r="F4">
         <v>750130</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <f>$C4/$M$2-D4/$M$2</f>
         <v>2.123980358862132E-3</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <f t="shared" si="0"/>
         <v>3.2827925712575201E-4</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <f t="shared" si="0"/>
         <v>-6.7446465554925894E-3</v>
       </c>
@@ -2926,15 +2926,15 @@
       <c r="F5">
         <v>591091</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <f t="shared" ref="G5:G17" si="1">$C5/$M$2-D5/$M$2</f>
         <v>-5.4556078609316605E-3</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <f t="shared" si="0"/>
         <v>-7.2377437041091508E-3</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <f t="shared" si="0"/>
         <v>-3.5664760408707669E-2</v>
       </c>
@@ -2958,15 +2958,15 @@
       <c r="F6">
         <v>333436</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <f t="shared" si="1"/>
         <v>-1.3127100707462147E-2</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <f t="shared" si="0"/>
         <v>-1.4081416647081818E-2</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <f t="shared" si="0"/>
         <v>-4.2148614868405113E-2</v>
       </c>
@@ -2990,15 +2990,15 @@
       <c r="F7">
         <v>1088</v>
       </c>
-      <c r="G7" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
+      <c r="G7" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3022,15 +3022,15 @@
       <c r="F8">
         <v>865960</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <f t="shared" si="1"/>
         <v>4.7037534053034902E-4</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <f t="shared" si="0"/>
         <v>1.0007769501839126E-3</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <f t="shared" si="0"/>
         <v>1.8726839440582066E-3</v>
       </c>
@@ -3054,15 +3054,15 @@
       <c r="F9">
         <v>756477</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <f t="shared" si="1"/>
         <v>-1.448091351164138E-4</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <f t="shared" si="0"/>
         <v>-1.9340667390373156E-3</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <f t="shared" si="0"/>
         <v>-9.0429404868367647E-3</v>
       </c>
@@ -3086,15 +3086,15 @@
       <c r="F10">
         <v>611461</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <f t="shared" si="1"/>
         <v>-9.0697318724906606E-3</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <f t="shared" si="0"/>
         <v>-9.3976719981524182E-3</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <f t="shared" si="0"/>
         <v>-4.0428200951670712E-2</v>
       </c>
@@ -3118,15 +3118,15 @@
       <c r="F11">
         <v>367173</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <f t="shared" si="1"/>
         <v>-2.39247073888946E-2</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <f t="shared" si="0"/>
         <v>-2.4215682184983336E-2</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <f t="shared" si="0"/>
         <v>-5.6096752850145606E-2</v>
       </c>
@@ -3150,15 +3150,15 @@
       <c r="F12">
         <v>1133</v>
       </c>
-      <c r="G12" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
+      <c r="G12" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3182,15 +3182,15 @@
       <c r="F13">
         <v>860527</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <f t="shared" si="1"/>
         <v>-7.657588456507769E-4</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <f t="shared" si="0"/>
         <v>-4.3341001095736909E-4</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <f t="shared" si="0"/>
         <v>1.4959088875843296E-3</v>
       </c>
@@ -3214,15 +3214,15 @@
       <c r="F14">
         <v>760024</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <f t="shared" si="1"/>
         <v>1.0597858249152825E-3</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <f t="shared" si="0"/>
         <v>1.7845097634253126E-3</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <f t="shared" si="0"/>
         <v>-5.6651911056669335E-3</v>
       </c>
@@ -3246,15 +3246,15 @@
       <c r="F15">
         <v>604206</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <f t="shared" si="1"/>
         <v>-1.2238915403317174E-2</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <f t="shared" si="0"/>
         <v>-1.1138433802725195E-2</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <f t="shared" si="0"/>
         <v>-3.7746688466037154E-2</v>
       </c>
@@ -3278,15 +3278,15 @@
       <c r="F16">
         <v>375102</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <f t="shared" si="1"/>
         <v>-3.7524896488598913E-2</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <f t="shared" si="0"/>
         <v>-3.6675033039882871E-2</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="3">
         <f t="shared" si="0"/>
         <v>-6.5774886569003585E-2</v>
       </c>
@@ -3310,15 +3310,15 @@
       <c r="F17">
         <v>1205</v>
       </c>
-      <c r="G17" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="4">
+      <c r="G17" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3341,6 +3341,174 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C4:F4">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:F5">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:F6">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:F7">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:F8">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:F9">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:F10">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:F11">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:F12">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13:F13">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:F14">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:F15">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:F16">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:F17">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G3:I17">
     <cfRule type="colorScale" priority="16">
       <colorScale>
@@ -3348,174 +3516,6 @@
         <cfvo type="num" val="9.9999999999999995E-8"/>
         <color rgb="FFFF7C80"/>
         <color theme="9" tint="0.39997558519241921"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:F4">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8:F8">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5:F5">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6:F6">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7:F7">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9:F9">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10:F10">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11:F11">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12:F12">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13:F13">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14:F14">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15:F15">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16:F16">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:F17">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -3528,71 +3528,71 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:M17"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
       <c r="J1" s="1"/>
       <c r="M1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="M2">
         <f>(1000000+1926339)</f>
@@ -3618,15 +3618,15 @@
       <c r="F3">
         <v>908431</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <f>$C3/$M$2-D3/$M$2</f>
         <v>-1.4543769535928508E-3</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <f t="shared" ref="H3:I17" si="0">$C3/$M$2-E3/$M$2</f>
         <v>-1.1266637255628598E-3</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <f t="shared" si="0"/>
         <v>-8.9600008748130788E-4</v>
       </c>
@@ -3650,15 +3650,15 @@
       <c r="F4">
         <v>820524</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <f>$C4/$M$2-D4/$M$2</f>
         <v>-1.6583861268294475E-3</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <f t="shared" si="0"/>
         <v>-1.592433412533345E-4</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <f t="shared" si="0"/>
         <v>-2.7686471047954631E-3</v>
       </c>
@@ -3682,15 +3682,15 @@
       <c r="F5">
         <v>689370</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <f t="shared" ref="G5:G17" si="1">$C5/$M$2-D5/$M$2</f>
         <v>5.5461790312058556E-4</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <f t="shared" si="0"/>
         <v>6.1544475879246607E-4</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <f t="shared" si="0"/>
         <v>-1.4360263797188244E-2</v>
       </c>
@@ -3714,15 +3714,15 @@
       <c r="F6">
         <v>501667</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <f t="shared" si="1"/>
         <v>-1.8258650142721003E-2</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <f t="shared" si="0"/>
         <v>-1.7866351096028174E-2</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <f t="shared" si="0"/>
         <v>-5.2878357565545195E-2</v>
       </c>
@@ -3746,15 +3746,15 @@
       <c r="F7">
         <v>204293</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <f t="shared" si="1"/>
         <v>-2.2215129552659481E-2</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <f t="shared" si="0"/>
         <v>-1.9655275755816395E-2</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <f t="shared" si="0"/>
         <v>-2.863783040857535E-2</v>
       </c>
@@ -3778,15 +3778,15 @@
       <c r="F8">
         <v>906467</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <f t="shared" si="1"/>
         <v>1.1611778402980666E-3</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <f t="shared" si="0"/>
         <v>1.1618612881146295E-3</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <f t="shared" si="0"/>
         <v>1.0706210046068088E-3</v>
       </c>
@@ -3810,15 +3810,15 @@
       <c r="F9">
         <v>828019</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <f t="shared" si="1"/>
         <v>-2.9668469715914969E-3</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <f t="shared" si="0"/>
         <v>-1.68674921121581E-3</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <f t="shared" si="0"/>
         <v>-4.7444947424068462E-3</v>
       </c>
@@ -3842,15 +3842,15 @@
       <c r="F10">
         <v>696301</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <f t="shared" si="1"/>
         <v>-8.7002907045286015E-4</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <f t="shared" si="0"/>
         <v>-3.675924081249643E-3</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <f t="shared" si="0"/>
         <v>-1.7283028384612986E-2</v>
       </c>
@@ -3874,15 +3874,15 @@
       <c r="F11">
         <v>525786</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <f t="shared" si="1"/>
         <v>-2.5323791946182589E-2</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <f t="shared" si="0"/>
         <v>-2.3170589600179592E-2</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <f t="shared" si="0"/>
         <v>-5.8362342845446141E-2</v>
       </c>
@@ -3906,15 +3906,15 @@
       <c r="F12">
         <v>235099</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <f t="shared" si="1"/>
         <v>-1.7583403699981445E-2</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <f t="shared" si="0"/>
         <v>-1.919292330792844E-2</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <f t="shared" si="0"/>
         <v>-4.1272730192913394E-2</v>
       </c>
@@ -3938,15 +3938,15 @@
       <c r="F13">
         <v>905483</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <f t="shared" si="1"/>
         <v>-5.631610008273169E-4</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <f t="shared" si="0"/>
         <v>2.314496030705937E-3</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <f t="shared" si="0"/>
         <v>1.0935165064607788E-3</v>
       </c>
@@ -3970,15 +3970,15 @@
       <c r="F14">
         <v>819809</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <f t="shared" si="1"/>
         <v>-7.0053401195147025E-5</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <f t="shared" si="0"/>
         <v>-2.6073534200924398E-3</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <f t="shared" si="0"/>
         <v>-1.8497515154600741E-3</v>
       </c>
@@ -4002,15 +4002,15 @@
       <c r="F15">
         <v>699974</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <f t="shared" si="1"/>
         <v>-2.21847161248237E-3</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <f t="shared" si="0"/>
         <v>-3.2306578287751297E-3</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <f t="shared" si="0"/>
         <v>-1.8864184908173653E-2</v>
       </c>
@@ -4034,15 +4034,15 @@
       <c r="F16">
         <v>523298</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <f t="shared" si="1"/>
         <v>-2.4404896356847255E-2</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <f t="shared" si="0"/>
         <v>-2.5270483016492623E-2</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="3">
         <f t="shared" si="0"/>
         <v>-5.53842189848818E-2</v>
       </c>
@@ -4066,15 +4066,15 @@
       <c r="F17">
         <v>218381</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <f t="shared" si="1"/>
         <v>-3.5725867713890969E-2</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <f t="shared" si="0"/>
         <v>-2.9887856465023361E-2</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="3">
         <f t="shared" si="0"/>
         <v>-4.9421136785587724E-2</v>
       </c>
@@ -4097,6 +4097,174 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C4:F4">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:F5">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:F6">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:F7">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:F8">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:F9">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:F10">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:F11">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:F12">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13:F13">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:F14">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:F15">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:F16">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:F17">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G3:I17">
     <cfRule type="colorScale" priority="16">
       <colorScale>
@@ -4104,174 +4272,6 @@
         <cfvo type="num" val="9.9999999999999995E-8"/>
         <color rgb="FFFF7C80"/>
         <color theme="9" tint="0.39997558519241921"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:F4">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8:F8">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5:F5">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6:F6">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7:F7">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9:F9">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10:F10">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11:F11">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12:F12">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13:F13">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14:F14">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15:F15">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16:F16">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:F17">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -4283,71 +4283,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AABE8AAE-670F-457F-AE6B-8007E6A99544}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="A1:M17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
       <c r="J1" s="1"/>
       <c r="M1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="M2">
         <f>(1000000+1904995)</f>
@@ -4373,15 +4373,15 @@
       <c r="F3">
         <v>929951</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <f>$C3/$M$2-D3/$M$2</f>
         <v>5.8175659510606437E-5</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <f t="shared" ref="H3:I17" si="0">$C3/$M$2-E3/$M$2</f>
         <v>2.9156676689634509E-4</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <f t="shared" si="0"/>
         <v>-1.4905361282890883E-4</v>
       </c>
@@ -4405,15 +4405,15 @@
       <c r="F4">
         <v>861843</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <f>$C4/$M$2-D4/$M$2</f>
         <v>-2.0805543555152406E-3</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <f t="shared" si="0"/>
         <v>-2.0237556346913155E-3</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <f t="shared" si="0"/>
         <v>-2.398971426801122E-3</v>
       </c>
@@ -4437,15 +4437,15 @@
       <c r="F5">
         <v>749041</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <f t="shared" ref="G5:G17" si="1">$C5/$M$2-D5/$M$2</f>
         <v>6.8020771120086421E-4</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <f t="shared" si="0"/>
         <v>4.0309880051428437E-4</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <f t="shared" si="0"/>
         <v>-7.888825970440605E-3</v>
       </c>
@@ -4469,15 +4469,15 @@
       <c r="F6">
         <v>591519</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <f t="shared" si="1"/>
         <v>-4.9473407011027537E-3</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <f t="shared" si="0"/>
         <v>-5.1896819099516434E-3</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <f t="shared" si="0"/>
         <v>-3.4961850192513244E-2</v>
       </c>
@@ -4501,15 +4501,15 @@
       <c r="F7">
         <v>334400</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <f t="shared" si="1"/>
         <v>-1.6134279060721277E-2</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <f t="shared" si="0"/>
         <v>-1.5830664080316845E-2</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <f t="shared" si="0"/>
         <v>-4.5436222781794808E-2</v>
       </c>
@@ -4533,15 +4533,15 @@
       <c r="F8">
         <v>929447</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <f t="shared" si="1"/>
         <v>-1.2323601245439741E-4</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <f t="shared" si="0"/>
         <v>4.7883042827956412E-4</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <f t="shared" si="0"/>
         <v>-1.053358095280954E-4</v>
       </c>
@@ -4565,15 +4565,15 @@
       <c r="F9">
         <v>862367</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <f t="shared" si="1"/>
         <v>-1.8258206984865799E-3</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <f t="shared" si="0"/>
         <v>-4.1170466730577893E-4</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <f t="shared" si="0"/>
         <v>-1.1373513551658498E-3</v>
       </c>
@@ -4597,15 +4597,15 @@
       <c r="F10">
         <v>752127</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <f t="shared" si="1"/>
         <v>-6.9845214879887818E-4</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <f t="shared" si="0"/>
         <v>-3.7900237349802746E-4</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <f t="shared" si="0"/>
         <v>-8.7239392838885932E-3</v>
       </c>
@@ -4629,15 +4629,15 @@
       <c r="F11">
         <v>609115</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <f t="shared" si="1"/>
         <v>-1.1083667958120408E-2</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <f t="shared" si="0"/>
         <v>-1.2175580336627079E-2</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <f t="shared" si="0"/>
         <v>-4.1781483272776698E-2</v>
       </c>
@@ -4661,15 +4661,15 @@
       <c r="F12">
         <v>384574</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <f t="shared" si="1"/>
         <v>-3.625032056853799E-2</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <f t="shared" si="0"/>
         <v>-3.6370802703619108E-2</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <f t="shared" si="0"/>
         <v>-7.0962256389425798E-2</v>
       </c>
@@ -4693,15 +4693,15 @@
       <c r="F13">
         <v>932108</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <f t="shared" si="1"/>
         <v>-1.1483668646589673E-3</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <f t="shared" si="0"/>
         <v>-1.2681605303967447E-3</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <f t="shared" si="0"/>
         <v>-1.5215172487387796E-3</v>
       </c>
@@ -4725,15 +4725,15 @@
       <c r="F14">
         <v>857759</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <f t="shared" si="1"/>
         <v>-1.2378678792906439E-3</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <f t="shared" si="0"/>
         <v>-1.067127482146657E-4</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <f t="shared" si="0"/>
         <v>-2.8399360411979213E-4</v>
       </c>
@@ -4757,15 +4757,15 @@
       <c r="F15">
         <v>750911</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <f t="shared" si="1"/>
         <v>-3.9318484197046755E-3</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <f t="shared" si="0"/>
         <v>-3.6313315513451516E-3</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <f t="shared" si="0"/>
         <v>-9.5308253542604748E-3</v>
       </c>
@@ -4789,15 +4789,15 @@
       <c r="F16">
         <v>601973</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <f t="shared" si="1"/>
         <v>-1.0780397212387632E-2</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <f t="shared" si="0"/>
         <v>-1.0671963290814601E-2</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="3">
         <f t="shared" si="0"/>
         <v>-3.885101351293202E-2</v>
       </c>
@@ -4821,15 +4821,15 @@
       <c r="F17">
         <v>428521</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <f t="shared" si="1"/>
         <v>-3.790299122717939E-2</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <f t="shared" si="0"/>
         <v>-4.6911956819202787E-2</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="3">
         <f t="shared" si="0"/>
         <v>-8.6268995299475543E-2</v>
       </c>
@@ -4852,6 +4852,174 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C4:F4">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:F5">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:F6">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:F7">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:F8">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:F9">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:F10">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:F11">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:F12">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13:F13">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:F14">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:F15">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:F16">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:F17">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G3:I17">
     <cfRule type="colorScale" priority="16">
       <colorScale>
@@ -4859,174 +5027,6 @@
         <cfvo type="num" val="9.9999999999999995E-8"/>
         <color rgb="FFFF7C80"/>
         <color theme="9" tint="0.39997558519241921"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:F4">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8:F8">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5:F5">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6:F6">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7:F7">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9:F9">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10:F10">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11:F11">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12:F12">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13:F13">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14:F14">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15:F15">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16:F16">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:F17">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -5038,72 +5038,72 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{828BF1BD-B39A-48A4-B18D-2D734E737915}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M1" sqref="A1:M17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
       <c r="J1" s="1"/>
       <c r="M1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="M2">
         <f>(65535+934466)</f>
@@ -5129,15 +5129,15 @@
       <c r="F3">
         <v>968992</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <f>$C3/$M$2-D3/$M$2</f>
         <v>1.469998530001515E-4</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <f t="shared" ref="H3:I17" si="0">$C3/$M$2-E3/$M$2</f>
         <v>1.3399986600004521E-4</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <f t="shared" si="0"/>
         <v>-5.1999948000092111E-5</v>
       </c>
@@ -5161,15 +5161,15 @@
       <c r="F4">
         <v>937573</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <f>$C4/$M$2-D4/$M$2</f>
         <v>-6.9999930000008703E-5</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <f t="shared" si="0"/>
         <v>-3.2999967000013619E-5</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <f t="shared" si="0"/>
         <v>-2.6199973800022924E-4</v>
       </c>
@@ -5193,15 +5193,15 @@
       <c r="F5">
         <v>875503</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <f t="shared" ref="G5:G17" si="1">$C5/$M$2-D5/$M$2</f>
         <v>-4.869995130004634E-4</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <f t="shared" si="0"/>
         <v>-6.6399933600069794E-4</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <f t="shared" si="0"/>
         <v>-2.2599977400017401E-4</v>
       </c>
@@ -5225,15 +5225,15 @@
       <c r="F6">
         <v>752343</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <f t="shared" si="1"/>
         <v>-6.2899937100058256E-4</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <f t="shared" si="0"/>
         <v>-3.1999968000029355E-4</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <f t="shared" si="0"/>
         <v>-2.1699978300021572E-3</v>
       </c>
@@ -5257,15 +5257,15 @@
       <c r="F7">
         <v>625875</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <f t="shared" si="1"/>
         <v>-3.3839966160033597E-3</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <f t="shared" si="0"/>
         <v>-2.4039975960023496E-3</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <f t="shared" si="0"/>
         <v>-0.12600887399112598</v>
       </c>
@@ -5289,15 +5289,15 @@
       <c r="F8">
         <v>968712</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <f t="shared" si="1"/>
         <v>4.0999958999976549E-5</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <f t="shared" si="0"/>
         <v>1.379998620001377E-4</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <f t="shared" si="0"/>
         <v>-2.0999979000069224E-5</v>
       </c>
@@ -5321,15 +5321,15 @@
       <c r="F9">
         <v>937453</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <f t="shared" si="1"/>
         <v>-3.1999968000073764E-5</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <f t="shared" si="0"/>
         <v>-8.9999910000138073E-6</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <f t="shared" si="0"/>
         <v>1.2499987500014242E-4</v>
       </c>
@@ -5353,15 +5353,15 @@
       <c r="F10">
         <v>875268</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <f t="shared" si="1"/>
         <v>-5.6499943500054606E-4</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <f t="shared" si="0"/>
         <v>-1.1699988300006847E-4</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <f t="shared" si="0"/>
         <v>-5.2899947100049083E-4</v>
       </c>
@@ -5385,15 +5385,15 @@
       <c r="F11">
         <v>751541</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <f t="shared" si="1"/>
         <v>-9.319990680010104E-4</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <f t="shared" si="0"/>
         <v>-4.999995000005697E-4</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <f t="shared" si="0"/>
         <v>-1.5319984680015608E-3</v>
       </c>
@@ -5417,15 +5417,15 @@
       <c r="F12">
         <v>625281</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <f t="shared" si="1"/>
         <v>-2.9649970350029697E-3</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <f t="shared" si="0"/>
         <v>-1.6389983610015646E-3</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <f t="shared" si="0"/>
         <v>-0.12486587513412484</v>
       </c>
@@ -5449,15 +5449,15 @@
       <c r="F13">
         <v>968807</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <f t="shared" si="1"/>
         <v>1.9899980100013259E-4</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <f t="shared" si="0"/>
         <v>1.8399981600014659E-4</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <f t="shared" si="0"/>
         <v>-2.4099975900027104E-4</v>
       </c>
@@ -5481,15 +5481,15 @@
       <c r="F14">
         <v>937383</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <f t="shared" si="1"/>
         <v>-5.5799944200063401E-4</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <f t="shared" si="0"/>
         <v>-1.7199982800020219E-4</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <f t="shared" si="0"/>
         <v>-3.7599962400036713E-4</v>
       </c>
@@ -5513,15 +5513,15 @@
       <c r="F15">
         <v>874888</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <f t="shared" si="1"/>
         <v>6.0199939800065216E-4</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <f t="shared" si="0"/>
         <v>1.0699989300011481E-4</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <f t="shared" si="0"/>
         <v>1.3299986700010535E-4</v>
       </c>
@@ -5545,15 +5545,15 @@
       <c r="F16">
         <v>752867</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <f t="shared" si="1"/>
         <v>-5.2199947800057878E-4</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <f t="shared" si="0"/>
         <v>-1.6399983600012824E-4</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="3">
         <f t="shared" si="0"/>
         <v>-3.1979968020031668E-3</v>
       </c>
@@ -5577,15 +5577,15 @@
       <c r="F17">
         <v>625556</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <f t="shared" si="1"/>
         <v>-2.7639972360027354E-3</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <f t="shared" si="0"/>
         <v>-2.5199974800025338E-3</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="3">
         <f t="shared" si="0"/>
         <v>-0.12536987463012528</v>
       </c>
@@ -5608,6 +5608,174 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C4:F4">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:F5">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:F6">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:F7">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:F8">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:F9">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:F10">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:F11">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:F12">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13:F13">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:F14">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:F15">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:F16">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:F17">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G3:I17">
     <cfRule type="colorScale" priority="16">
       <colorScale>
@@ -5615,174 +5783,6 @@
         <cfvo type="num" val="9.9999999999999995E-8"/>
         <color rgb="FFFF7C80"/>
         <color theme="9" tint="0.39997558519241921"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:F4">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8:F8">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5:F5">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6:F6">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7:F7">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9:F9">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10:F10">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11:F11">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12:F12">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13:F13">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14:F14">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15:F15">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16:F16">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:F17">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -5795,71 +5795,71 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="I2" sqref="A2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
       <c r="J1" s="1"/>
       <c r="M1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="M2">
         <f>(65535+934466)</f>
@@ -5885,15 +5885,15 @@
       <c r="F3">
         <v>190554</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <f>$C3/$M$2-D3/$M$2</f>
         <v>-5.9589940410059716E-3</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <f t="shared" ref="H3:I17" si="0">$C3/$M$2-E3/$M$2</f>
         <v>-7.0069929930069996E-3</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <f t="shared" si="0"/>
         <v>-1.7652982347017648E-2</v>
       </c>
@@ -5917,15 +5917,15 @@
       <c r="F4">
         <v>9971</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <f>$C4/$M$2-D4/$M$2</f>
         <v>1.1699988300011704E-4</v>
       </c>
-      <c r="H4" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
+      <c r="H4" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5949,15 +5949,15 @@
       <c r="F5">
         <v>5967</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <f t="shared" ref="G5:G17" si="1">$C5/$M$2-D5/$M$2</f>
         <v>1.8909981090018905E-3</v>
       </c>
-      <c r="H5" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="4">
+      <c r="H5" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5981,15 +5981,15 @@
       <c r="F6">
         <v>4042</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <f t="shared" si="1"/>
         <v>2.3959976040023962E-3</v>
       </c>
-      <c r="H6" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
+      <c r="H6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6013,15 +6013,15 @@
       <c r="F7">
         <v>351</v>
       </c>
-      <c r="G7" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
+      <c r="G7" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6045,15 +6045,15 @@
       <c r="F8">
         <v>196773</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <f t="shared" si="1"/>
         <v>-1.1604988395011617E-2</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <f t="shared" si="0"/>
         <v>-1.5002984997015023E-2</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <f t="shared" si="0"/>
         <v>-2.3731976268023758E-2</v>
       </c>
@@ -6077,15 +6077,15 @@
       <c r="F9">
         <v>137738</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <f t="shared" si="1"/>
         <v>5.0019949980050077E-3</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <f t="shared" si="0"/>
         <v>2.1179978820021206E-3</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <f t="shared" si="0"/>
         <v>-2.2690977309022697E-2</v>
       </c>
@@ -6109,15 +6109,15 @@
       <c r="F10">
         <v>1919</v>
       </c>
-      <c r="G10" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="4">
+      <c r="G10" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6141,15 +6141,15 @@
       <c r="F11">
         <v>351</v>
       </c>
-      <c r="G11" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="4">
+      <c r="G11" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6173,15 +6173,15 @@
       <c r="F12">
         <v>351</v>
       </c>
-      <c r="G12" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
+      <c r="G12" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6205,15 +6205,15 @@
       <c r="F13">
         <v>194798</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <f t="shared" si="1"/>
         <v>-1.1135988864011154E-2</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <f t="shared" si="0"/>
         <v>-1.286798713201287E-2</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <f t="shared" si="0"/>
         <v>-2.0294979705020311E-2</v>
       </c>
@@ -6237,15 +6237,15 @@
       <c r="F14">
         <v>140410</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <f t="shared" si="1"/>
         <v>9.8299901700098224E-4</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <f t="shared" si="0"/>
         <v>-1.0069989930010098E-3</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <f t="shared" si="0"/>
         <v>-2.6099973900026094E-2</v>
       </c>
@@ -6269,15 +6269,15 @@
       <c r="F15">
         <v>67578</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <f t="shared" si="1"/>
         <v>-4.0525959474040529E-2</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <f t="shared" si="0"/>
         <v>-3.9866960133039864E-2</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <f t="shared" si="0"/>
         <v>-6.1330938669061336E-2</v>
       </c>
@@ -6301,15 +6301,15 @@
       <c r="F16">
         <v>351</v>
       </c>
-      <c r="G16" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="4">
+      <c r="G16" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6333,15 +6333,15 @@
       <c r="F17">
         <v>351</v>
       </c>
-      <c r="G17" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="4">
+      <c r="G17" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6364,6 +6364,174 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C4:F4">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:F5">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:F6">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:F7">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:F8">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:F9">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:F10">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:F11">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:F12">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13:F13">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:F14">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:F15">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:F16">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:F17">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G3:I17">
     <cfRule type="colorScale" priority="16">
       <colorScale>
@@ -6371,174 +6539,6 @@
         <cfvo type="num" val="9.9999999999999995E-8"/>
         <color rgb="FFFF7C80"/>
         <color theme="9" tint="0.39997558519241921"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:F4">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8:F8">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5:F5">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6:F6">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7:F7">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9:F9">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10:F10">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11:F11">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12:F12">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13:F13">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14:F14">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15:F15">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16:F16">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:F17">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -6550,71 +6550,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2C0526-569C-4D1F-85C3-03DCB45183DB}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M17" sqref="A1:M17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
       <c r="J1" s="1"/>
       <c r="M1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="M2">
         <f>(7284+992747)</f>
@@ -6640,15 +6640,15 @@
       <c r="F3">
         <v>450829</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <f>$C3/$M$2-D3/$M$2</f>
         <v>2.3904258967971992E-2</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <f t="shared" ref="H3:I17" si="0">$C3/$M$2-E3/$M$2</f>
         <v>1.8514426052792354E-2</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <f t="shared" si="0"/>
         <v>1.4691544562118575E-2</v>
       </c>
@@ -6672,15 +6672,15 @@
       <c r="F4">
         <v>376994</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <f>$C4/$M$2-D4/$M$2</f>
         <v>-2.3426273785512652E-2</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <f t="shared" si="0"/>
         <v>-2.8485116961374179E-2</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <f t="shared" si="0"/>
         <v>-7.3008736729161361E-2</v>
       </c>
@@ -6704,15 +6704,15 @@
       <c r="F5">
         <v>17338</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <f t="shared" ref="G5:G17" si="1">$C5/$M$2-D5/$M$2</f>
         <v>-1.3889569423347885E-3</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <f t="shared" si="0"/>
         <v>-1.2789603522290818E-3</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <f t="shared" si="0"/>
         <v>-3.4708924023355275E-3</v>
       </c>
@@ -6736,15 +6736,15 @@
       <c r="F6">
         <v>11105</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <f t="shared" si="1"/>
         <v>3.9548773988006374E-3</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <f t="shared" si="0"/>
         <v>2.0169374749382778E-3</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <f t="shared" si="0"/>
         <v>-1.0399677609993982E-4</v>
       </c>
@@ -6768,15 +6768,15 @@
       <c r="F7">
         <v>527</v>
       </c>
-      <c r="G7" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
+      <c r="G7" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6800,15 +6800,15 @@
       <c r="F8">
         <v>436529</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <f t="shared" si="1"/>
         <v>1.3630577452099002E-2</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <f t="shared" si="0"/>
         <v>1.0871662978447716E-2</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <f t="shared" si="0"/>
         <v>1.0159685049763501E-2</v>
       </c>
@@ -6832,15 +6832,15 @@
       <c r="F9">
         <v>351930</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <f t="shared" si="1"/>
         <v>-1.1791634459331735E-2</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <f t="shared" si="0"/>
         <v>-1.8075439661370485E-2</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <f t="shared" si="0"/>
         <v>-4.8711489943811748E-2</v>
       </c>
@@ -6864,15 +6864,15 @@
       <c r="F10">
         <v>237719</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <f t="shared" si="1"/>
         <v>-1.9870384018095433E-2</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <f t="shared" si="0"/>
         <v>-2.2223311077356589E-2</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <f t="shared" si="0"/>
         <v>-8.4350385138060702E-2</v>
       </c>
@@ -6896,15 +6896,15 @@
       <c r="F11">
         <v>1847</v>
       </c>
-      <c r="G11" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="4">
+      <c r="G11" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6928,15 +6928,15 @@
       <c r="F12">
         <v>527</v>
       </c>
-      <c r="G12" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
+      <c r="G12" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6960,15 +6960,15 @@
       <c r="F13">
         <v>429604</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <f t="shared" si="1"/>
         <v>1.5419521994818164E-2</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <f t="shared" si="0"/>
         <v>1.1440645339994449E-2</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <f t="shared" si="0"/>
         <v>7.6677622993687189E-3</v>
       </c>
@@ -6992,15 +6992,15 @@
       <c r="F14">
         <v>355391</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <f t="shared" si="1"/>
         <v>-1.7447459128766996E-2</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <f t="shared" si="0"/>
         <v>-2.2681296879796753E-2</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <f t="shared" si="0"/>
         <v>-5.1978388669951248E-2</v>
       </c>
@@ -7024,15 +7024,15 @@
       <c r="F15">
         <v>245178</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <f t="shared" si="1"/>
         <v>-3.4817920644460015E-2</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <f t="shared" si="0"/>
         <v>-3.7851826593375604E-2</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <f t="shared" si="0"/>
         <v>-9.1400166594835575E-2</v>
       </c>
@@ -7056,15 +7056,15 @@
       <c r="F16">
         <v>622</v>
       </c>
-      <c r="G16" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="4">
+      <c r="G16" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7088,15 +7088,15 @@
       <c r="F17">
         <v>527</v>
       </c>
-      <c r="G17" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="4">
+      <c r="G17" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7119,6 +7119,174 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C4:F4">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:F5">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:F6">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:F7">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:F8">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:F9">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:F10">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:F11">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:F12">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13:F13">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:F14">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:F15">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:F16">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:F17">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G3:I17">
     <cfRule type="colorScale" priority="16">
       <colorScale>
@@ -7126,174 +7294,6 @@
         <cfvo type="num" val="9.9999999999999995E-8"/>
         <color rgb="FFFF7C80"/>
         <color theme="9" tint="0.39997558519241921"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:F4">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8:F8">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5:F5">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6:F6">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7:F7">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9:F9">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10:F10">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11:F11">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12:F12">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13:F13">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14:F14">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15:F15">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16:F16">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:F17">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -7305,71 +7305,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B592963A-FB3A-4B23-AABC-F92EADEBEF7A}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection sqref="A1:M17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
       <c r="J1" s="1"/>
       <c r="M1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="M2">
         <f>(12353+987678)</f>
@@ -7395,15 +7395,15 @@
       <c r="F3">
         <v>941883</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <f>$C3/$M$2-D3/$M$2</f>
         <v>1.8029441087326292E-2</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <f t="shared" ref="H3:I17" si="0">$C3/$M$2-E3/$M$2</f>
         <v>6.3108043650647039E-3</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <f t="shared" si="0"/>
         <v>2.0454365914656658E-2</v>
       </c>
@@ -7427,15 +7427,15 @@
       <c r="F4">
         <v>878782</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <f>$C4/$M$2-D4/$M$2</f>
         <v>3.4561928580214007E-2</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <f t="shared" si="0"/>
         <v>3.1051037417840099E-2</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <f t="shared" si="0"/>
         <v>4.643256059062173E-2</v>
       </c>
@@ -7459,15 +7459,15 @@
       <c r="F5">
         <v>744608</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <f t="shared" ref="G5:G17" si="1">$C5/$M$2-D5/$M$2</f>
         <v>-5.0107446669153233E-2</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <f t="shared" si="0"/>
         <v>-5.9445157200126775E-2</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <f t="shared" si="0"/>
         <v>-0.14601047367531605</v>
       </c>
@@ -7491,15 +7491,15 @@
       <c r="F6">
         <v>24727</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <f t="shared" si="1"/>
         <v>-9.1297169787736554E-4</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <f t="shared" si="0"/>
         <v>-2.9699079328541003E-4</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <f t="shared" si="0"/>
         <v>-2.3969256953034444E-3</v>
       </c>
@@ -7523,15 +7523,15 @@
       <c r="F7">
         <v>22384</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <f t="shared" si="1"/>
         <v>7.8727559445657194E-3</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <f t="shared" si="0"/>
         <v>4.0688738649101892E-3</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <f t="shared" si="0"/>
         <v>-2.8099128927003281E-4</v>
       </c>
@@ -7555,15 +7555,15 @@
       <c r="F8">
         <v>930606</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <f t="shared" si="1"/>
         <v>1.2365616665883317E-2</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <f t="shared" si="0"/>
         <v>-7.9997520077146334E-6</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <f t="shared" si="0"/>
         <v>1.2899600112396548E-2</v>
       </c>
@@ -7587,15 +7587,15 @@
       <c r="F9">
         <v>856094</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <f t="shared" si="1"/>
         <v>5.791020478365172E-2</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <f t="shared" si="0"/>
         <v>3.2618988811346838E-2</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <f t="shared" si="0"/>
         <v>3.1457024832230118E-2</v>
       </c>
@@ -7619,15 +7619,15 @@
       <c r="F10">
         <v>697664</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <f t="shared" si="1"/>
         <v>-1.5829509285212096E-2</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <f t="shared" si="0"/>
         <v>-3.1689017640453176E-2</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <f t="shared" si="0"/>
         <v>-0.10137085750341734</v>
       </c>
@@ -7651,15 +7651,15 @@
       <c r="F11">
         <v>470884</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <f t="shared" si="1"/>
         <v>-4.2453683935798014E-2</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <f t="shared" si="0"/>
         <v>-4.394163780922794E-2</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <f t="shared" si="0"/>
         <v>-0.16746080871492985</v>
       </c>
@@ -7683,15 +7683,15 @@
       <c r="F12">
         <v>1133</v>
       </c>
-      <c r="G12" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
+      <c r="G12" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7715,15 +7715,15 @@
       <c r="F13">
         <v>921071</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <f t="shared" si="1"/>
         <v>-7.9997520077146334E-6</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <f t="shared" si="0"/>
         <v>-7.9997520077146334E-6</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <f t="shared" si="0"/>
         <v>1.3018596423510886E-2</v>
       </c>
@@ -7747,15 +7747,15 @@
       <c r="F14">
         <v>856043</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <f t="shared" si="1"/>
         <v>4.3959637251245187E-2</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <f t="shared" si="0"/>
         <v>2.7099159926042282E-2</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <f t="shared" si="0"/>
         <v>1.2676607025182252E-2</v>
       </c>
@@ -7779,15 +7779,15 @@
       <c r="F15">
         <v>664253</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <f t="shared" si="1"/>
         <v>4.0871732976277775E-2</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <f t="shared" si="0"/>
         <v>-1.3818571624279574E-2</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <f t="shared" si="0"/>
         <v>-6.911285750141738E-2</v>
       </c>
@@ -7811,15 +7811,15 @@
       <c r="F16">
         <v>482125</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <f t="shared" si="1"/>
         <v>-6.1824083453412948E-2</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <f t="shared" si="0"/>
         <v>-7.2675747051841377E-2</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="3">
         <f t="shared" si="0"/>
         <v>-0.18100538883294615</v>
       </c>
@@ -7843,15 +7843,15 @@
       <c r="F17">
         <v>1066</v>
       </c>
-      <c r="G17" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="4">
+      <c r="G17" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7874,6 +7874,174 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C4:F4">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:F5">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:F6">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:F7">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:F8">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:F9">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:F10">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:F11">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:F12">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13:F13">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:F14">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:F15">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:F16">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:F17">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G3:I17">
     <cfRule type="colorScale" priority="16">
       <colorScale>
@@ -7884,174 +8052,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:F4">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8:F8">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5:F5">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6:F6">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7:F7">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9:F9">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10:F10">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11:F11">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12:F12">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13:F13">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14:F14">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15:F15">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16:F16">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:F17">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>